--- a/important_files/Own_muntiac.xlsx
+++ b/important_files/Own_muntiac.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Desktop\Thesis\r-work\1_input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Uni\Masterarbeit\Thesis\documentation\Muntiacus_reevesi\important_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DCA37E-78E8-4702-B872-8346B0507CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-1488" windowWidth="23256" windowHeight="13896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22935" yWindow="-1485" windowWidth="23250" windowHeight="13890" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="98">
   <si>
     <t>year</t>
   </si>
@@ -43,69 +42,6 @@
   </si>
   <si>
     <t>DE</t>
-  </si>
-  <si>
-    <t>54.51766887614365</t>
-  </si>
-  <si>
-    <t>9.750572648251831</t>
-  </si>
-  <si>
-    <t>https://www.schleswig-holstein.de/DE/fachinhalte/A/artenschutz/faq_muntjaks.html?nn=54460442-34b4-47a5-a480-02ad2d638a4f</t>
-  </si>
-  <si>
-    <t>54.49801973394543</t>
-  </si>
-  <si>
-    <t>9.729398726349471</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>54.54214472528269</t>
-  </si>
-  <si>
-    <t>9.759728513600736</t>
-  </si>
-  <si>
-    <t>54.52383412411073</t>
-  </si>
-  <si>
-    <t>9.72045578197576</t>
-  </si>
-  <si>
-    <t>54.493629027472124</t>
-  </si>
-  <si>
-    <t>9.74143075623102</t>
-  </si>
-  <si>
-    <t>48.2012007166018</t>
-  </si>
-  <si>
-    <t>11.304078544421397</t>
-  </si>
-  <si>
-    <t>https://www.sueddeutsche.de/muenchen/fuerstenfeldbruck/fuerstenfeldbruck-muntjaks-hirsche-jagd-1.5314918</t>
-  </si>
-  <si>
-    <t>48.20484067776025</t>
-  </si>
-  <si>
-    <t>11.313575901556627</t>
-  </si>
-  <si>
-    <t>48.1315315007408</t>
-  </si>
-  <si>
-    <t>11.159308413459842</t>
-  </si>
-  <si>
-    <t>48.13066046985241</t>
-  </si>
-  <si>
-    <t>11.15823383534097</t>
   </si>
   <si>
     <t>2020</t>
@@ -387,19 +323,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -422,17 +350,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -812,24 +737,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="13.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -846,403 +771,403 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>2023</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2023</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>27</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="B21" s="1" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>64</v>
@@ -1251,46 +1176,46 @@
         <v>65</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>5</v>
@@ -1302,12 +1227,12 @@
         <v>76</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>5</v>
@@ -1319,29 +1244,29 @@
         <v>78</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>5</v>
@@ -1356,218 +1281,58 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="D33" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>118</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
